--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\Inteijj project\SLN-Pilot-1.2.0.1\SLN-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A943AC-432B-4FB7-9986-7054F401BB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,23 +42,20 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
-    <t>service-account-mosip-resident-client</t>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Service-account-mosip-resident-client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -67,18 +64,38 @@
       <charset val="1"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -108,15 +125,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,22 +456,22 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -459,36 +481,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="b">
+      <c r="D3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>